--- a/model/Outputs/5. Base Case (Variable HR)/Output_0_40.xlsx
+++ b/model/Outputs/5. Base Case (Variable HR)/Output_0_40.xlsx
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1832508.813605801</v>
+        <v>1832499.927425904</v>
       </c>
     </row>
   </sheetData>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>43.78388702783449</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -976,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.141737162115911</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2.141737162115925</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1083,16 +1083,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>62.50424275763934</v>
+        <v>60.97588275763921</v>
       </c>
       <c r="E8" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>29.7686442701951</v>
+        <v>28.41640427019498</v>
       </c>
       <c r="N8" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>5.810762965053983</v>
+        <v>4.493977162115888</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>17.30400000000002</v>
+        <v>17.13600000000006</v>
       </c>
       <c r="D11" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>24.9837870278342</v>
+        <v>28.15178702783424</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2268,16 +2268,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>63.79678275763918</v>
+        <v>62.50424275763934</v>
       </c>
       <c r="E23" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>31.29700427019501</v>
+        <v>29.7686442701951</v>
       </c>
       <c r="N23" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.47984122147129</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>5.810762965053983</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2502,22 +2502,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.123587027834346</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2547,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>100.1235870278343</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2742,16 +2742,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>65.32514275763937</v>
+        <v>63.79678275763918</v>
       </c>
       <c r="E29" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>32.64924427019513</v>
+        <v>105</v>
       </c>
       <c r="N29" t="n">
-        <v>106</v>
+        <v>31.29700427019501</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>8.479841221471233</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>11.92484396417777</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2973,10 +2973,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>65.3251427576394</v>
+        <v>63.79678275763918</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>32.64924427019513</v>
+        <v>105</v>
       </c>
       <c r="N32" t="n">
-        <v>106</v>
+        <v>31.29700427019501</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>8.47984122147129</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>11.92484396417777</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>61.79678275763921</v>
+        <v>63.79678275763918</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>30.29700427019504</v>
+        <v>105</v>
       </c>
       <c r="N35" t="n">
-        <v>106</v>
+        <v>31.29700427019501</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.515714059355374</v>
+        <v>8.47984122147129</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>5.964127162115915</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3447,10 +3447,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C38" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>56.86244275763932</v>
+        <v>59.68334275763929</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>97</v>
+        <v>26.88804427019508</v>
       </c>
       <c r="N38" t="n">
-        <v>24.00744427019511</v>
+        <v>100</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3583,13 +3583,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>2.141737162115911</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>3.61188716211591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>47.33397960458483</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3693,13 +3693,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3732,10 +3732,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.038459604585</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>14.12523931499992</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>13.53717931499991</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>69.15190275763929</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -3969,10 +3969,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>20.36973960458492</v>
       </c>
       <c r="S44" t="n">
-        <v>34.21783684694564</v>
+        <v>83</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>24.51501662360952</v>
+        <v>24.5150166236095</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>285.7564068258984</v>
       </c>
       <c r="M2" t="n">
-        <v>241.5302583129342</v>
+        <v>285.7564068258984</v>
       </c>
       <c r="N2" t="n">
         <v>241.5302583129342</v>
@@ -4567,76 +4567,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.60000000000001</v>
+        <v>385.8366291291758</v>
       </c>
       <c r="C6" t="n">
-        <v>77.60000000000001</v>
+        <v>385.8366291291758</v>
       </c>
       <c r="D6" t="n">
-        <v>77.60000000000001</v>
+        <v>385.8366291291758</v>
       </c>
       <c r="E6" t="n">
-        <v>77.60000000000001</v>
+        <v>385.8366291291758</v>
       </c>
       <c r="F6" t="n">
-        <v>77.60000000000001</v>
+        <v>385.8366291291758</v>
       </c>
       <c r="G6" t="n">
-        <v>77.60000000000001</v>
+        <v>385.8366291291758</v>
       </c>
       <c r="H6" t="n">
-        <v>77.60000000000001</v>
+        <v>385.8366291291758</v>
       </c>
       <c r="I6" t="n">
-        <v>77.60000000000001</v>
+        <v>385.8366291291758</v>
       </c>
       <c r="J6" t="n">
-        <v>77.60000000000001</v>
+        <v>385.8366291291758</v>
       </c>
       <c r="K6" t="n">
-        <v>77.60000000000001</v>
+        <v>385.8366291291758</v>
       </c>
       <c r="L6" t="n">
-        <v>77.60000000000001</v>
+        <v>385.8366291291758</v>
       </c>
       <c r="M6" t="n">
-        <v>77.60000000000001</v>
+        <v>385.8366291291758</v>
       </c>
       <c r="N6" t="n">
-        <v>77.60000000000001</v>
+        <v>385.8366291291758</v>
       </c>
       <c r="O6" t="n">
-        <v>79.76337087082416</v>
+        <v>388</v>
       </c>
       <c r="P6" t="n">
-        <v>79.76337087082416</v>
+        <v>388</v>
       </c>
       <c r="Q6" t="n">
-        <v>79.76337087082416</v>
+        <v>388</v>
       </c>
       <c r="R6" t="n">
-        <v>79.76337087082416</v>
+        <v>388</v>
       </c>
       <c r="S6" t="n">
-        <v>79.76337087082416</v>
+        <v>388</v>
       </c>
       <c r="T6" t="n">
-        <v>79.76337087082416</v>
+        <v>388</v>
       </c>
       <c r="U6" t="n">
-        <v>77.60000000000001</v>
+        <v>388</v>
       </c>
       <c r="V6" t="n">
-        <v>77.60000000000001</v>
+        <v>385.8366291291758</v>
       </c>
       <c r="W6" t="n">
-        <v>77.60000000000001</v>
+        <v>385.8366291291758</v>
       </c>
       <c r="X6" t="n">
-        <v>77.60000000000001</v>
+        <v>385.8366291291758</v>
       </c>
       <c r="Y6" t="n">
-        <v>77.60000000000001</v>
+        <v>385.8366291291758</v>
       </c>
     </row>
     <row r="7">
@@ -4725,76 +4725,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C8" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D8" t="n">
-        <v>348.8644012549098</v>
+        <v>346.4081992347079</v>
       </c>
       <c r="E8" t="n">
-        <v>244.8239972145057</v>
+        <v>243.3778962044048</v>
       </c>
       <c r="F8" t="n">
-        <v>244.8239972145057</v>
+        <v>243.3778962044048</v>
       </c>
       <c r="G8" t="n">
-        <v>140.7835931741017</v>
+        <v>140.3475931741018</v>
       </c>
       <c r="H8" t="n">
-        <v>140.7835931741017</v>
+        <v>140.3475931741018</v>
       </c>
       <c r="I8" t="n">
-        <v>140.7835931741017</v>
+        <v>140.3475931741018</v>
       </c>
       <c r="J8" t="n">
-        <v>208.0606779943082</v>
+        <v>206.4366779943083</v>
       </c>
       <c r="K8" t="n">
-        <v>310.0303389971541</v>
+        <v>307.2183389971541</v>
       </c>
       <c r="L8" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M8" t="n">
-        <v>381.9306623533383</v>
+        <v>379.2965613432374</v>
       </c>
       <c r="N8" t="n">
-        <v>277.8902583129342</v>
+        <v>276.2662583129343</v>
       </c>
       <c r="O8" t="n">
-        <v>310.3145284374286</v>
+        <v>307.5025284374287</v>
       </c>
       <c r="P8" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q8" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="R8" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="S8" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="T8" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="U8" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="V8" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="W8" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="X8" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Y8" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9">
@@ -4804,76 +4804,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>83.13608666963442</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>83.13608666963442</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>83.13608666963442</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>83.13608666963442</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="N9" t="n">
-        <v>83.13608666963442</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>88.26945754045857</v>
+        <v>86.13937087082414</v>
       </c>
       <c r="P9" t="n">
-        <v>88.26945754045857</v>
+        <v>86.13937087082414</v>
       </c>
       <c r="Q9" t="n">
-        <v>88.26945754045857</v>
+        <v>86.13937087082414</v>
       </c>
       <c r="R9" t="n">
-        <v>88.26945754045857</v>
+        <v>86.13937087082414</v>
       </c>
       <c r="S9" t="n">
-        <v>88.26945754045857</v>
+        <v>86.13937087082414</v>
       </c>
       <c r="T9" t="n">
-        <v>88.26945754045857</v>
+        <v>86.13937087082414</v>
       </c>
       <c r="U9" t="n">
-        <v>88.26945754045857</v>
+        <v>86.13937087082414</v>
       </c>
       <c r="V9" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="W9" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="X9" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4883,76 +4883,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="P10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="R10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="S10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="U10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="V10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="W10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="X10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -4962,76 +4962,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C11" t="n">
-        <v>394.5212121212121</v>
+        <v>390.690909090909</v>
       </c>
       <c r="D11" t="n">
-        <v>290.4808080808081</v>
+        <v>287.660606060606</v>
       </c>
       <c r="E11" t="n">
-        <v>186.440404040404</v>
+        <v>184.630303030303</v>
       </c>
       <c r="F11" t="n">
-        <v>186.440404040404</v>
+        <v>184.630303030303</v>
       </c>
       <c r="G11" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>139.5790848202065</v>
+        <v>138.7790848202065</v>
       </c>
       <c r="K11" t="n">
-        <v>231.4507458230523</v>
+        <v>230.6507458230523</v>
       </c>
       <c r="L11" t="n">
-        <v>323.3224068258982</v>
+        <v>322.5224068258982</v>
       </c>
       <c r="M11" t="n">
-        <v>323.3224068258982</v>
+        <v>322.5224068258982</v>
       </c>
       <c r="N11" t="n">
-        <v>298.0862583129343</v>
+        <v>294.0862583129343</v>
       </c>
       <c r="O11" t="n">
-        <v>320.4125284374287</v>
+        <v>316.4125284374287</v>
       </c>
       <c r="P11" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q11" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="R11" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="S11" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="T11" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="U11" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="V11" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="W11" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="X11" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Y11" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12">
@@ -5041,76 +5041,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>411.9156291291758</v>
+        <v>407.9156291291758</v>
       </c>
       <c r="C12" t="n">
-        <v>411.9156291291758</v>
+        <v>407.9156291291758</v>
       </c>
       <c r="D12" t="n">
-        <v>411.9156291291758</v>
+        <v>407.9156291291758</v>
       </c>
       <c r="E12" t="n">
-        <v>411.9156291291758</v>
+        <v>407.9156291291758</v>
       </c>
       <c r="F12" t="n">
-        <v>411.9156291291758</v>
+        <v>407.9156291291758</v>
       </c>
       <c r="G12" t="n">
-        <v>411.9156291291758</v>
+        <v>407.9156291291758</v>
       </c>
       <c r="H12" t="n">
-        <v>411.9156291291758</v>
+        <v>407.9156291291758</v>
       </c>
       <c r="I12" t="n">
-        <v>411.9156291291758</v>
+        <v>407.9156291291758</v>
       </c>
       <c r="J12" t="n">
-        <v>411.9156291291758</v>
+        <v>407.9156291291758</v>
       </c>
       <c r="K12" t="n">
-        <v>411.9156291291758</v>
+        <v>407.9156291291758</v>
       </c>
       <c r="L12" t="n">
-        <v>411.9156291291758</v>
+        <v>407.9156291291758</v>
       </c>
       <c r="M12" t="n">
-        <v>411.9156291291758</v>
+        <v>407.9156291291758</v>
       </c>
       <c r="N12" t="n">
-        <v>411.9156291291758</v>
+        <v>407.9156291291758</v>
       </c>
       <c r="O12" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P12" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q12" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="R12" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="S12" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="T12" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="U12" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="V12" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="W12" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="X12" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Y12" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13">
@@ -5120,76 +5120,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="M13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="N13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="P13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="R13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="S13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="T13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="U13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="V13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="W13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="X13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>82.40000000000001</v>
+        <v>81.60000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5910,76 +5910,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C23" t="n">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D23" t="n">
-        <v>355.558805295314</v>
+        <v>348.8644012549098</v>
       </c>
       <c r="E23" t="n">
-        <v>249.4981992347079</v>
+        <v>244.8239972145057</v>
       </c>
       <c r="F23" t="n">
-        <v>249.4981992347079</v>
+        <v>244.8239972145057</v>
       </c>
       <c r="G23" t="n">
-        <v>143.4375931741018</v>
+        <v>140.7835931741017</v>
       </c>
       <c r="H23" t="n">
-        <v>143.4375931741018</v>
+        <v>140.7835931741017</v>
       </c>
       <c r="I23" t="n">
-        <v>143.4375931741018</v>
+        <v>140.7835931741017</v>
       </c>
       <c r="J23" t="n">
-        <v>212.4966779943083</v>
+        <v>208.0606779943082</v>
       </c>
       <c r="K23" t="n">
-        <v>316.2483389971542</v>
+        <v>310.0303389971541</v>
       </c>
       <c r="L23" t="n">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M23" t="n">
-        <v>388.3868643735404</v>
+        <v>381.9306623533383</v>
       </c>
       <c r="N23" t="n">
-        <v>282.3262583129343</v>
+        <v>277.8902583129342</v>
       </c>
       <c r="O23" t="n">
-        <v>316.5325284374287</v>
+        <v>310.3145284374286</v>
       </c>
       <c r="P23" t="n">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="Q23" t="n">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="R23" t="n">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="S23" t="n">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T23" t="n">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="U23" t="n">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="V23" t="n">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="W23" t="n">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="X23" t="n">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="Y23" t="n">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24">
@@ -5989,76 +5989,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>411.4345038166957</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>411.4345038166957</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>411.4345038166957</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>411.4345038166957</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>411.4345038166957</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>411.4345038166957</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>411.4345038166957</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>411.4345038166957</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>413.9525904863301</v>
+        <v>83.13608666963442</v>
       </c>
       <c r="K24" t="n">
-        <v>413.9756291291758</v>
+        <v>83.13608666963442</v>
       </c>
       <c r="L24" t="n">
-        <v>413.9756291291758</v>
+        <v>83.13608666963442</v>
       </c>
       <c r="M24" t="n">
-        <v>413.9756291291758</v>
+        <v>83.13608666963442</v>
       </c>
       <c r="N24" t="n">
-        <v>413.9756291291758</v>
+        <v>83.13608666963442</v>
       </c>
       <c r="O24" t="n">
-        <v>420</v>
+        <v>88.26945754045857</v>
       </c>
       <c r="P24" t="n">
-        <v>420</v>
+        <v>88.26945754045857</v>
       </c>
       <c r="Q24" t="n">
-        <v>420</v>
+        <v>88.26945754045857</v>
       </c>
       <c r="R24" t="n">
-        <v>420</v>
+        <v>88.26945754045857</v>
       </c>
       <c r="S24" t="n">
-        <v>420</v>
+        <v>88.26945754045857</v>
       </c>
       <c r="T24" t="n">
-        <v>420</v>
+        <v>88.26945754045857</v>
       </c>
       <c r="U24" t="n">
-        <v>420</v>
+        <v>88.26945754045857</v>
       </c>
       <c r="V24" t="n">
-        <v>420</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="W24" t="n">
-        <v>420</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>420</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="Y24" t="n">
-        <v>420</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -6068,76 +6068,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="L25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="N25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="O25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="P25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="Q25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="R25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="S25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="T25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="U25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="V25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="W25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="Y25" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -6147,76 +6147,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>84</v>
+        <v>412</v>
       </c>
       <c r="C26" t="n">
-        <v>84</v>
+        <v>410.8650636082481</v>
       </c>
       <c r="D26" t="n">
-        <v>84</v>
+        <v>410.8650636082481</v>
       </c>
       <c r="E26" t="n">
-        <v>84</v>
+        <v>306.8246595678441</v>
       </c>
       <c r="F26" t="n">
-        <v>84</v>
+        <v>306.8246595678441</v>
       </c>
       <c r="G26" t="n">
-        <v>84</v>
+        <v>202.7842555274401</v>
       </c>
       <c r="H26" t="n">
-        <v>84</v>
+        <v>98.74385148703601</v>
       </c>
       <c r="I26" t="n">
-        <v>84</v>
+        <v>98.74385148703601</v>
       </c>
       <c r="J26" t="n">
-        <v>132.8630848202065</v>
+        <v>147.6069363072425</v>
       </c>
       <c r="K26" t="n">
-        <v>216.4187458230524</v>
+        <v>231.1625973100884</v>
       </c>
       <c r="L26" t="n">
-        <v>299.9744068258983</v>
+        <v>314.7182583129343</v>
       </c>
       <c r="M26" t="n">
-        <v>299.9744068258983</v>
+        <v>314.7182583129343</v>
       </c>
       <c r="N26" t="n">
-        <v>299.9744068258983</v>
+        <v>314.7182583129343</v>
       </c>
       <c r="O26" t="n">
-        <v>313.9846769503927</v>
+        <v>328.7285284374287</v>
       </c>
       <c r="P26" t="n">
-        <v>397.256148512964</v>
+        <v>412</v>
       </c>
       <c r="Q26" t="n">
-        <v>397.256148512964</v>
+        <v>412</v>
       </c>
       <c r="R26" t="n">
-        <v>291.1955424523579</v>
+        <v>412</v>
       </c>
       <c r="S26" t="n">
-        <v>291.1955424523579</v>
+        <v>412</v>
       </c>
       <c r="T26" t="n">
-        <v>185.1349363917519</v>
+        <v>412</v>
       </c>
       <c r="U26" t="n">
-        <v>185.1349363917519</v>
+        <v>412</v>
       </c>
       <c r="V26" t="n">
-        <v>185.1349363917519</v>
+        <v>412</v>
       </c>
       <c r="W26" t="n">
-        <v>84</v>
+        <v>412</v>
       </c>
       <c r="X26" t="n">
-        <v>84</v>
+        <v>412</v>
       </c>
       <c r="Y26" t="n">
-        <v>84</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27">
@@ -6226,76 +6226,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="L27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="M27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="N27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="O27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="P27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="Q27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="R27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="S27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="T27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="U27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="V27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="W27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="X27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="Y27" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -6305,76 +6305,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="L28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="N28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="P28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="Q28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="R28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="T28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="U28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="V28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="W28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="X28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="Y28" t="n">
-        <v>84</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -6384,76 +6384,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C29" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D29" t="n">
-        <v>358.0150073155158</v>
+        <v>355.558805295314</v>
       </c>
       <c r="E29" t="n">
-        <v>250.9443002448087</v>
+        <v>249.4981992347079</v>
       </c>
       <c r="F29" t="n">
-        <v>250.9443002448087</v>
+        <v>249.4981992347079</v>
       </c>
       <c r="G29" t="n">
-        <v>143.8735931741016</v>
+        <v>143.4375931741018</v>
       </c>
       <c r="H29" t="n">
-        <v>143.8735931741016</v>
+        <v>143.4375931741018</v>
       </c>
       <c r="I29" t="n">
-        <v>143.8735931741016</v>
+        <v>143.4375931741018</v>
       </c>
       <c r="J29" t="n">
-        <v>214.1206779943082</v>
+        <v>212.4966779943083</v>
       </c>
       <c r="K29" t="n">
-        <v>319.0603389971541</v>
+        <v>316.2483389971542</v>
       </c>
       <c r="L29" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M29" t="n">
-        <v>391.0209653836413</v>
+        <v>313.9393939393939</v>
       </c>
       <c r="N29" t="n">
-        <v>283.9502583129342</v>
+        <v>282.3262583129343</v>
       </c>
       <c r="O29" t="n">
-        <v>319.3445284374286</v>
+        <v>316.5325284374287</v>
       </c>
       <c r="P29" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Q29" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="R29" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="S29" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="T29" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="U29" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="V29" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="W29" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="X29" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Y29" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30">
@@ -6463,76 +6463,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="C30" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="D30" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="E30" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="F30" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="G30" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="H30" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="I30" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="J30" t="n">
-        <v>88.50608666963443</v>
+        <v>86.51808666963437</v>
       </c>
       <c r="K30" t="n">
-        <v>89.71712531248025</v>
+        <v>86.54112531248015</v>
       </c>
       <c r="L30" t="n">
-        <v>89.71712531248025</v>
+        <v>86.54112531248015</v>
       </c>
       <c r="M30" t="n">
-        <v>89.71712531248025</v>
+        <v>86.54112531248015</v>
       </c>
       <c r="N30" t="n">
-        <v>89.71712531248025</v>
+        <v>86.54112531248015</v>
       </c>
       <c r="O30" t="n">
-        <v>96.3354961833044</v>
+        <v>92.56549618330428</v>
       </c>
       <c r="P30" t="n">
-        <v>96.84529693351291</v>
+        <v>92.56549618330428</v>
       </c>
       <c r="Q30" t="n">
-        <v>96.84529693351291</v>
+        <v>92.56549618330428</v>
       </c>
       <c r="R30" t="n">
-        <v>96.84529693351291</v>
+        <v>84</v>
       </c>
       <c r="S30" t="n">
-        <v>96.84529693351291</v>
+        <v>84</v>
       </c>
       <c r="T30" t="n">
-        <v>96.84529693351291</v>
+        <v>84</v>
       </c>
       <c r="U30" t="n">
-        <v>96.84529693351291</v>
+        <v>84</v>
       </c>
       <c r="V30" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="W30" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="X30" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="Y30" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -6542,76 +6542,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="C31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="D31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="E31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="F31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="G31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="H31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="I31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="J31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="K31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="L31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="M31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="N31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="O31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="P31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="R31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="S31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="T31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="U31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="V31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="W31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="X31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="Y31" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -6621,76 +6621,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>316.929292929293</v>
+        <v>313.9393939393939</v>
       </c>
       <c r="C32" t="n">
-        <v>209.8585858585859</v>
+        <v>207.8787878787879</v>
       </c>
       <c r="D32" t="n">
-        <v>209.8585858585859</v>
+        <v>207.8787878787879</v>
       </c>
       <c r="E32" t="n">
-        <v>209.8585858585859</v>
+        <v>207.8787878787879</v>
       </c>
       <c r="F32" t="n">
-        <v>209.8585858585859</v>
+        <v>207.8787878787879</v>
       </c>
       <c r="G32" t="n">
-        <v>143.8735931741016</v>
+        <v>143.4375931741018</v>
       </c>
       <c r="H32" t="n">
-        <v>143.8735931741016</v>
+        <v>143.4375931741018</v>
       </c>
       <c r="I32" t="n">
-        <v>143.8735931741016</v>
+        <v>143.4375931741018</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1206779943082</v>
+        <v>212.4966779943083</v>
       </c>
       <c r="K32" t="n">
-        <v>319.0603389971541</v>
+        <v>316.2483389971542</v>
       </c>
       <c r="L32" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M32" t="n">
-        <v>391.0209653836413</v>
+        <v>313.9393939393939</v>
       </c>
       <c r="N32" t="n">
-        <v>283.9502583129342</v>
+        <v>282.3262583129343</v>
       </c>
       <c r="O32" t="n">
-        <v>319.3445284374286</v>
+        <v>316.5325284374287</v>
       </c>
       <c r="P32" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Q32" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="R32" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="S32" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="T32" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="U32" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="V32" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="W32" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="X32" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Y32" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33">
@@ -6700,76 +6700,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>84.80000000000001</v>
+        <v>411.4345038166957</v>
       </c>
       <c r="C33" t="n">
-        <v>84.80000000000001</v>
+        <v>411.4345038166957</v>
       </c>
       <c r="D33" t="n">
-        <v>84.80000000000001</v>
+        <v>411.4345038166957</v>
       </c>
       <c r="E33" t="n">
-        <v>84.80000000000001</v>
+        <v>411.4345038166957</v>
       </c>
       <c r="F33" t="n">
-        <v>84.80000000000001</v>
+        <v>411.4345038166957</v>
       </c>
       <c r="G33" t="n">
-        <v>84.80000000000001</v>
+        <v>411.4345038166957</v>
       </c>
       <c r="H33" t="n">
-        <v>84.80000000000001</v>
+        <v>411.4345038166957</v>
       </c>
       <c r="I33" t="n">
-        <v>84.80000000000001</v>
+        <v>411.4345038166957</v>
       </c>
       <c r="J33" t="n">
-        <v>88.50608666963443</v>
+        <v>413.9525904863301</v>
       </c>
       <c r="K33" t="n">
-        <v>89.71712531248025</v>
+        <v>413.9756291291758</v>
       </c>
       <c r="L33" t="n">
-        <v>89.71712531248025</v>
+        <v>413.9756291291758</v>
       </c>
       <c r="M33" t="n">
-        <v>89.71712531248025</v>
+        <v>413.9756291291758</v>
       </c>
       <c r="N33" t="n">
-        <v>89.71712531248025</v>
+        <v>413.9756291291758</v>
       </c>
       <c r="O33" t="n">
-        <v>96.3354961833044</v>
+        <v>420</v>
       </c>
       <c r="P33" t="n">
-        <v>96.84529693351291</v>
+        <v>420</v>
       </c>
       <c r="Q33" t="n">
-        <v>96.84529693351291</v>
+        <v>420</v>
       </c>
       <c r="R33" t="n">
-        <v>96.84529693351291</v>
+        <v>420</v>
       </c>
       <c r="S33" t="n">
-        <v>96.84529693351291</v>
+        <v>420</v>
       </c>
       <c r="T33" t="n">
-        <v>96.84529693351291</v>
+        <v>420</v>
       </c>
       <c r="U33" t="n">
-        <v>96.84529693351291</v>
+        <v>420</v>
       </c>
       <c r="V33" t="n">
-        <v>84.80000000000001</v>
+        <v>420</v>
       </c>
       <c r="W33" t="n">
-        <v>84.80000000000001</v>
+        <v>420</v>
       </c>
       <c r="X33" t="n">
-        <v>84.80000000000001</v>
+        <v>420</v>
       </c>
       <c r="Y33" t="n">
-        <v>84.80000000000001</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34">
@@ -6779,76 +6779,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="C34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="D34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="E34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="F34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="G34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="H34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="I34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="J34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="K34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="L34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="M34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="N34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="O34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="P34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="R34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="S34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="T34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="U34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="V34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="W34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="X34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="Y34" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
@@ -6858,76 +6858,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>316.929292929293</v>
+        <v>313.9393939393939</v>
       </c>
       <c r="C35" t="n">
-        <v>209.8585858585859</v>
+        <v>207.8787878787879</v>
       </c>
       <c r="D35" t="n">
-        <v>209.8585858585859</v>
+        <v>207.8787878787879</v>
       </c>
       <c r="E35" t="n">
-        <v>209.8585858585859</v>
+        <v>207.8787878787879</v>
       </c>
       <c r="F35" t="n">
-        <v>209.8585858585859</v>
+        <v>207.8787878787879</v>
       </c>
       <c r="G35" t="n">
-        <v>147.4375931741018</v>
+        <v>143.4375931741018</v>
       </c>
       <c r="H35" t="n">
-        <v>147.4375931741018</v>
+        <v>143.4375931741018</v>
       </c>
       <c r="I35" t="n">
-        <v>147.4375931741018</v>
+        <v>143.4375931741018</v>
       </c>
       <c r="J35" t="n">
-        <v>216.4966779943083</v>
+        <v>212.4966779943083</v>
       </c>
       <c r="K35" t="n">
-        <v>320.2483389971542</v>
+        <v>316.2483389971542</v>
       </c>
       <c r="L35" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M35" t="n">
-        <v>393.3969653836414</v>
+        <v>313.9393939393939</v>
       </c>
       <c r="N35" t="n">
-        <v>286.3262583129343</v>
+        <v>282.3262583129343</v>
       </c>
       <c r="O35" t="n">
-        <v>320.5325284374287</v>
+        <v>316.5325284374287</v>
       </c>
       <c r="P35" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Q35" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="R35" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="S35" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="T35" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="U35" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="V35" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="W35" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="X35" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Y35" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36">
@@ -6937,76 +6937,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>421.4588746875198</v>
+        <v>411.4345038166957</v>
       </c>
       <c r="C36" t="n">
-        <v>421.4588746875198</v>
+        <v>411.4345038166957</v>
       </c>
       <c r="D36" t="n">
-        <v>421.4588746875198</v>
+        <v>411.4345038166957</v>
       </c>
       <c r="E36" t="n">
-        <v>421.4588746875198</v>
+        <v>411.4345038166957</v>
       </c>
       <c r="F36" t="n">
-        <v>421.4588746875198</v>
+        <v>411.4345038166957</v>
       </c>
       <c r="G36" t="n">
-        <v>421.4588746875198</v>
+        <v>411.4345038166957</v>
       </c>
       <c r="H36" t="n">
-        <v>421.4588746875198</v>
+        <v>411.4345038166957</v>
       </c>
       <c r="I36" t="n">
-        <v>421.4588746875198</v>
+        <v>411.4345038166957</v>
       </c>
       <c r="J36" t="n">
-        <v>423.9769613571542</v>
+        <v>413.9525904863301</v>
       </c>
       <c r="K36" t="n">
-        <v>424</v>
+        <v>413.9756291291758</v>
       </c>
       <c r="L36" t="n">
-        <v>424</v>
+        <v>413.9756291291758</v>
       </c>
       <c r="M36" t="n">
-        <v>417.9756291291758</v>
+        <v>413.9756291291758</v>
       </c>
       <c r="N36" t="n">
-        <v>417.9756291291758</v>
+        <v>413.9756291291758</v>
       </c>
       <c r="O36" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P36" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Q36" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="R36" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="S36" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="T36" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="U36" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="V36" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="W36" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="X36" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Y36" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37">
@@ -7016,76 +7016,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="C37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="D37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="E37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="F37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="G37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="H37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="I37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="J37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="K37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="L37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="M37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="N37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="O37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="P37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="R37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="S37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="T37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="U37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="V37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="W37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="X37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
       <c r="Y37" t="n">
-        <v>84.80000000000001</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
@@ -7095,76 +7095,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>290.020202020202</v>
+        <v>298.989898989899</v>
       </c>
       <c r="C38" t="n">
-        <v>192.040404040404</v>
+        <v>197.979797979798</v>
       </c>
       <c r="D38" t="n">
-        <v>192.040404040404</v>
+        <v>197.979797979798</v>
       </c>
       <c r="E38" t="n">
-        <v>192.040404040404</v>
+        <v>197.979797979798</v>
       </c>
       <c r="F38" t="n">
-        <v>192.040404040404</v>
+        <v>197.979797979798</v>
       </c>
       <c r="G38" t="n">
-        <v>134.6035931741017</v>
+        <v>137.6935931741017</v>
       </c>
       <c r="H38" t="n">
-        <v>134.6035931741017</v>
+        <v>137.6935931741017</v>
       </c>
       <c r="I38" t="n">
-        <v>134.6035931741017</v>
+        <v>137.6935931741017</v>
       </c>
       <c r="J38" t="n">
-        <v>195.9406779943082</v>
+        <v>202.0006779943082</v>
       </c>
       <c r="K38" t="n">
-        <v>291.9703389971541</v>
+        <v>301.0003389971541</v>
       </c>
       <c r="L38" t="n">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="M38" t="n">
-        <v>290.020202020202</v>
+        <v>372.8403593230353</v>
       </c>
       <c r="N38" t="n">
-        <v>265.7702583129342</v>
+        <v>271.8302583129342</v>
       </c>
       <c r="O38" t="n">
-        <v>292.2545284374286</v>
+        <v>301.2845284374287</v>
       </c>
       <c r="P38" t="n">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="Q38" t="n">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="R38" t="n">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="S38" t="n">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="T38" t="n">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="U38" t="n">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="V38" t="n">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="W38" t="n">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="X38" t="n">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="Y38" t="n">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39">
@@ -7174,76 +7174,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="D39" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="E39" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="F39" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="G39" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="H39" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="I39" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="J39" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="K39" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="L39" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="M39" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="N39" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="O39" t="n">
-        <v>79.76337087082416</v>
+        <v>83.64837087082415</v>
       </c>
       <c r="P39" t="n">
-        <v>79.76337087082416</v>
+        <v>83.64837087082415</v>
       </c>
       <c r="Q39" t="n">
-        <v>79.76337087082416</v>
+        <v>83.64837087082415</v>
       </c>
       <c r="R39" t="n">
-        <v>79.76337087082416</v>
+        <v>83.64837087082415</v>
       </c>
       <c r="S39" t="n">
-        <v>79.76337087082416</v>
+        <v>83.64837087082415</v>
       </c>
       <c r="T39" t="n">
-        <v>79.76337087082416</v>
+        <v>83.64837087082415</v>
       </c>
       <c r="U39" t="n">
-        <v>77.60000000000001</v>
+        <v>83.64837087082415</v>
       </c>
       <c r="V39" t="n">
-        <v>77.60000000000001</v>
+        <v>83.64837087082415</v>
       </c>
       <c r="W39" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="X39" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
@@ -7253,76 +7253,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="C40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="D40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="E40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="F40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="G40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="H40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="I40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="J40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="K40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="L40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="M40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="N40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="O40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="P40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="Q40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="R40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="S40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="T40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="U40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="V40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="W40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="X40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="n">
-        <v>77.60000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -7332,76 +7332,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68</v>
+        <v>304.1878993893083</v>
       </c>
       <c r="C41" t="n">
-        <v>68</v>
+        <v>304.1878993893083</v>
       </c>
       <c r="D41" t="n">
-        <v>68</v>
+        <v>304.1878993893083</v>
       </c>
       <c r="E41" t="n">
-        <v>68</v>
+        <v>215.2990105004193</v>
       </c>
       <c r="F41" t="n">
-        <v>68</v>
+        <v>215.2990105004193</v>
       </c>
       <c r="G41" t="n">
-        <v>68</v>
+        <v>126.4101216115304</v>
       </c>
       <c r="H41" t="n">
-        <v>68</v>
+        <v>126.4101216115304</v>
       </c>
       <c r="I41" t="n">
-        <v>68</v>
+        <v>126.4101216115304</v>
       </c>
       <c r="J41" t="n">
-        <v>99.63708482020652</v>
+        <v>156.8592064317369</v>
       </c>
       <c r="K41" t="n">
-        <v>165.9667458230524</v>
+        <v>222.0008674345828</v>
       </c>
       <c r="L41" t="n">
-        <v>232.2964068258983</v>
+        <v>287.1425284374287</v>
       </c>
       <c r="M41" t="n">
-        <v>232.2964068258983</v>
+        <v>287.1425284374287</v>
       </c>
       <c r="N41" t="n">
-        <v>232.2964068258983</v>
+        <v>287.1425284374287</v>
       </c>
       <c r="O41" t="n">
-        <v>232.2964068258983</v>
+        <v>287.1425284374287</v>
       </c>
       <c r="P41" t="n">
-        <v>298.3418783884697</v>
+        <v>352</v>
       </c>
       <c r="Q41" t="n">
-        <v>298.3418783884697</v>
+        <v>352</v>
       </c>
       <c r="R41" t="n">
-        <v>212.4832925298838</v>
+        <v>352</v>
       </c>
       <c r="S41" t="n">
-        <v>153.8585858585859</v>
+        <v>352</v>
       </c>
       <c r="T41" t="n">
-        <v>153.8585858585859</v>
+        <v>352</v>
       </c>
       <c r="U41" t="n">
-        <v>153.8585858585859</v>
+        <v>352</v>
       </c>
       <c r="V41" t="n">
-        <v>153.8585858585859</v>
+        <v>352</v>
       </c>
       <c r="W41" t="n">
-        <v>68</v>
+        <v>352</v>
       </c>
       <c r="X41" t="n">
-        <v>68</v>
+        <v>352</v>
       </c>
       <c r="Y41" t="n">
-        <v>68</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42">
@@ -7411,76 +7411,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="J42" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="L42" t="n">
-        <v>82.26791849999992</v>
+        <v>84.07391849999992</v>
       </c>
       <c r="M42" t="n">
-        <v>68</v>
+        <v>84.07391849999992</v>
       </c>
       <c r="N42" t="n">
-        <v>68</v>
+        <v>84.07391849999992</v>
       </c>
       <c r="O42" t="n">
-        <v>68</v>
+        <v>84.07391849999992</v>
       </c>
       <c r="P42" t="n">
-        <v>68</v>
+        <v>84.07391849999992</v>
       </c>
       <c r="Q42" t="n">
-        <v>68</v>
+        <v>84.07391849999992</v>
       </c>
       <c r="R42" t="n">
-        <v>68</v>
+        <v>84.07391849999992</v>
       </c>
       <c r="S42" t="n">
-        <v>68</v>
+        <v>84.07391849999992</v>
       </c>
       <c r="T42" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="U42" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="V42" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="W42" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="X42" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="Y42" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="43">
@@ -7490,76 +7490,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="J43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="L43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="M43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="N43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="O43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="P43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="Q43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="R43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="S43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="T43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="U43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="V43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="W43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="X43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="Y43" t="n">
-        <v>68</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -7569,76 +7569,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="I44" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>63.35508482020651</v>
+        <v>66.55508482020652</v>
       </c>
       <c r="K44" t="n">
-        <v>98.2027458230524</v>
+        <v>101.4027458230524</v>
       </c>
       <c r="L44" t="n">
-        <v>133.0504068258983</v>
+        <v>136.2504068258983</v>
       </c>
       <c r="M44" t="n">
-        <v>63.2</v>
+        <v>136.2504068258983</v>
       </c>
       <c r="N44" t="n">
-        <v>63.2</v>
+        <v>136.2504068258983</v>
       </c>
       <c r="O44" t="n">
-        <v>63.2</v>
+        <v>136.2504068258983</v>
       </c>
       <c r="P44" t="n">
-        <v>97.76347156257135</v>
+        <v>170.8138783884696</v>
       </c>
       <c r="Q44" t="n">
-        <v>97.76347156257135</v>
+        <v>170.8138783884696</v>
       </c>
       <c r="R44" t="n">
-        <v>97.76347156257135</v>
+        <v>150.2383838383839</v>
       </c>
       <c r="S44" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="T44" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="U44" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="V44" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="W44" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="X44" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="Y44" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -7648,76 +7648,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>73.35132566678851</v>
+        <v>76.5513256667885</v>
       </c>
       <c r="K45" t="n">
-        <v>81.00760330678843</v>
+        <v>84.20760330678841</v>
       </c>
       <c r="L45" t="n">
-        <v>81.00760330678843</v>
+        <v>84.20760330678841</v>
       </c>
       <c r="M45" t="n">
-        <v>81.00760330678843</v>
+        <v>84.20760330678841</v>
       </c>
       <c r="N45" t="n">
-        <v>81.00760330678843</v>
+        <v>84.20760330678841</v>
       </c>
       <c r="O45" t="n">
-        <v>81.00760330678843</v>
+        <v>84.20760330678841</v>
       </c>
       <c r="P45" t="n">
-        <v>87.96264305415103</v>
+        <v>91.16264305415102</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.96264305415103</v>
+        <v>91.16264305415102</v>
       </c>
       <c r="R45" t="n">
-        <v>87.96264305415103</v>
+        <v>91.16264305415102</v>
       </c>
       <c r="S45" t="n">
-        <v>87.96264305415103</v>
+        <v>91.16264305415102</v>
       </c>
       <c r="T45" t="n">
-        <v>87.96264305415103</v>
+        <v>91.16264305415102</v>
       </c>
       <c r="U45" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="V45" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="W45" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="X45" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="Y45" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="46">
@@ -7727,76 +7727,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="I46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="J46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="L46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="M46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="N46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="O46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="P46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="R46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="S46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="T46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="U46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="V46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="W46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="X46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="Y46" t="n">
-        <v>63.2</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -22524,10 +22524,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>225.6782406144829</v>
+        <v>269.4621276423174</v>
       </c>
       <c r="N2" t="n">
-        <v>202.4489580698352</v>
+        <v>158.6650710420007</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -22864,10 +22864,10 @@
         <v>101.7340187629572</v>
       </c>
       <c r="U6" t="n">
-        <v>110.746960247596</v>
+        <v>112.8886974097119</v>
       </c>
       <c r="V6" t="n">
-        <v>127.71066719152</v>
+        <v>125.5689300294041</v>
       </c>
       <c r="W6" t="n">
         <v>145.5731429098284</v>
@@ -22965,25 +22965,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>189.1993129555744</v>
+        <v>190.3993129555744</v>
       </c>
       <c r="C8" t="n">
-        <v>156.6745782429941</v>
+        <v>157.8745782429941</v>
       </c>
       <c r="D8" t="n">
-        <v>55.0349129822106</v>
+        <v>57.76327298221078</v>
       </c>
       <c r="E8" t="n">
-        <v>8.563289606868636</v>
+        <v>10.76328960686868</v>
       </c>
       <c r="F8" t="n">
-        <v>112.089628708012</v>
+        <v>113.289628708012</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0327491714383</v>
+        <v>17.23274917143834</v>
       </c>
       <c r="H8" t="n">
-        <v>142.2277392702956</v>
+        <v>143.4277392702956</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -22998,10 +22998,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>221.6934833721223</v>
+        <v>224.2457233721225</v>
       </c>
       <c r="N8" t="n">
-        <v>81.44895806983521</v>
+        <v>83.64895806983526</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -23013,28 +23013,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>252.6197151626545</v>
+        <v>253.8197151626545</v>
       </c>
       <c r="S8" t="n">
-        <v>200.9750927496404</v>
+        <v>202.1750927496404</v>
       </c>
       <c r="T8" t="n">
-        <v>236.819191581105</v>
+        <v>238.0191915811051</v>
       </c>
       <c r="U8" t="n">
-        <v>351.7217529288725</v>
+        <v>352.9217529288725</v>
       </c>
       <c r="V8" t="n">
-        <v>337.0510241668239</v>
+        <v>338.2510241668239</v>
       </c>
       <c r="W8" t="n">
-        <v>345.5734759809474</v>
+        <v>346.7734759809475</v>
       </c>
       <c r="X8" t="n">
-        <v>299.4818334606679</v>
+        <v>300.681833460668</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.5174326828061</v>
+        <v>219.7174326828062</v>
       </c>
     </row>
     <row r="9">
@@ -23044,25 +23044,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.75655664632671</v>
+        <v>92.95655664632676</v>
       </c>
       <c r="C9" t="n">
-        <v>68.29991244551951</v>
+        <v>69.49991244551956</v>
       </c>
       <c r="D9" t="n">
-        <v>55.13768689770285</v>
+        <v>56.33768689770289</v>
       </c>
       <c r="E9" t="n">
-        <v>49.87209722191272</v>
+        <v>51.07209722191277</v>
       </c>
       <c r="F9" t="n">
-        <v>46.83624233787685</v>
+        <v>48.0362423378769</v>
       </c>
       <c r="G9" t="n">
-        <v>36.72519625238596</v>
+        <v>37.925196252386</v>
       </c>
       <c r="H9" t="n">
-        <v>52.42842014979527</v>
+        <v>53.62842014979532</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23077,10 +23077,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>91.94477826560313</v>
+        <v>93.14477826560318</v>
       </c>
       <c r="N9" t="n">
-        <v>57.98197706269519</v>
+        <v>59.18197706269524</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -23092,28 +23092,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>87.70486766197217</v>
+        <v>88.90486766197222</v>
       </c>
       <c r="S9" t="n">
-        <v>47.34058893982382</v>
+        <v>48.54058893982386</v>
       </c>
       <c r="T9" t="n">
-        <v>95.73401876295719</v>
+        <v>96.93401876295724</v>
       </c>
       <c r="U9" t="n">
-        <v>106.8886974097119</v>
+        <v>108.088697409712</v>
       </c>
       <c r="V9" t="n">
-        <v>115.899904226466</v>
+        <v>118.4166900294042</v>
       </c>
       <c r="W9" t="n">
-        <v>139.5731429098284</v>
+        <v>140.7731429098284</v>
       </c>
       <c r="X9" t="n">
-        <v>127.0627394453874</v>
+        <v>128.2627394453875</v>
       </c>
       <c r="Y9" t="n">
-        <v>106.5913927661342</v>
+        <v>107.7913927661343</v>
       </c>
     </row>
     <row r="10">
@@ -23165,16 +23165,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>9.090902192265673</v>
+        <v>10.29090219226572</v>
       </c>
       <c r="Q10" t="n">
-        <v>229.3821235684549</v>
+        <v>230.582123568455</v>
       </c>
       <c r="R10" t="n">
-        <v>428.3956210454637</v>
+        <v>429.5956210454637</v>
       </c>
       <c r="S10" t="n">
-        <v>116.7412260548639</v>
+        <v>117.941226054864</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23205,19 +23205,19 @@
         <v>199.3993129555744</v>
       </c>
       <c r="C11" t="n">
-        <v>149.5705782429941</v>
+        <v>149.738578242994</v>
       </c>
       <c r="D11" t="n">
-        <v>24.73915573984999</v>
+        <v>25.73915573984999</v>
       </c>
       <c r="E11" t="n">
-        <v>18.76328960686868</v>
+        <v>19.76328960686868</v>
       </c>
       <c r="F11" t="n">
         <v>122.289628708012</v>
       </c>
       <c r="G11" t="n">
-        <v>25.23274917143834</v>
+        <v>26.23274917143834</v>
       </c>
       <c r="H11" t="n">
         <v>152.4277392702956</v>
@@ -23238,7 +23238,7 @@
         <v>261.6621276423174</v>
       </c>
       <c r="N11" t="n">
-        <v>169.6651710420011</v>
+        <v>166.497171042001</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -24150,25 +24150,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>187.3993129555744</v>
+        <v>189.1993129555744</v>
       </c>
       <c r="C23" t="n">
-        <v>154.8745782429941</v>
+        <v>156.6745782429941</v>
       </c>
       <c r="D23" t="n">
-        <v>51.94237298221081</v>
+        <v>55.0349129822106</v>
       </c>
       <c r="E23" t="n">
-        <v>4.763289606868682</v>
+        <v>8.563289606868636</v>
       </c>
       <c r="F23" t="n">
-        <v>110.289628708012</v>
+        <v>112.089628708012</v>
       </c>
       <c r="G23" t="n">
-        <v>11.23274917143834</v>
+        <v>15.0327491714383</v>
       </c>
       <c r="H23" t="n">
-        <v>140.4277392702956</v>
+        <v>142.2277392702956</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>218.3651233721224</v>
+        <v>221.6934833721223</v>
       </c>
       <c r="N23" t="n">
-        <v>77.64895806983526</v>
+        <v>81.44895806983521</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -24198,28 +24198,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>250.8197151626545</v>
+        <v>252.6197151626545</v>
       </c>
       <c r="S23" t="n">
-        <v>199.1750927496404</v>
+        <v>200.9750927496404</v>
       </c>
       <c r="T23" t="n">
-        <v>235.0191915811051</v>
+        <v>236.819191581105</v>
       </c>
       <c r="U23" t="n">
-        <v>349.9217529288725</v>
+        <v>351.7217529288725</v>
       </c>
       <c r="V23" t="n">
-        <v>335.2510241668239</v>
+        <v>337.0510241668239</v>
       </c>
       <c r="W23" t="n">
-        <v>343.7734759809475</v>
+        <v>345.5734759809474</v>
       </c>
       <c r="X23" t="n">
-        <v>297.681833460668</v>
+        <v>299.4818334606679</v>
       </c>
       <c r="Y23" t="n">
-        <v>216.7174326828062</v>
+        <v>218.5174326828061</v>
       </c>
     </row>
     <row r="24">
@@ -24229,25 +24229,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>81.47671542485547</v>
+        <v>91.75655664632671</v>
       </c>
       <c r="C24" t="n">
-        <v>66.49991244551956</v>
+        <v>68.29991244551951</v>
       </c>
       <c r="D24" t="n">
-        <v>53.33768689770289</v>
+        <v>55.13768689770285</v>
       </c>
       <c r="E24" t="n">
-        <v>48.07209722191277</v>
+        <v>49.87209722191272</v>
       </c>
       <c r="F24" t="n">
-        <v>45.0362423378769</v>
+        <v>46.83624233787685</v>
       </c>
       <c r="G24" t="n">
-        <v>34.925196252386</v>
+        <v>36.72519625238596</v>
       </c>
       <c r="H24" t="n">
-        <v>50.62842014979532</v>
+        <v>52.42842014979527</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24262,10 +24262,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>90.14477826560318</v>
+        <v>91.94477826560313</v>
       </c>
       <c r="N24" t="n">
-        <v>56.18197706269524</v>
+        <v>57.98197706269519</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -24277,28 +24277,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>85.90486766197222</v>
+        <v>87.70486766197217</v>
       </c>
       <c r="S24" t="n">
-        <v>45.54058893982386</v>
+        <v>47.34058893982382</v>
       </c>
       <c r="T24" t="n">
-        <v>93.93401876295724</v>
+        <v>95.73401876295719</v>
       </c>
       <c r="U24" t="n">
-        <v>105.088697409712</v>
+        <v>106.8886974097119</v>
       </c>
       <c r="V24" t="n">
-        <v>119.9106671915201</v>
+        <v>115.899904226466</v>
       </c>
       <c r="W24" t="n">
-        <v>137.7731429098284</v>
+        <v>139.5731429098284</v>
       </c>
       <c r="X24" t="n">
-        <v>125.2627394453875</v>
+        <v>127.0627394453874</v>
       </c>
       <c r="Y24" t="n">
-        <v>104.7913927661343</v>
+        <v>106.5913927661342</v>
       </c>
     </row>
     <row r="25">
@@ -24350,16 +24350,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>7.290902192265719</v>
+        <v>9.090902192265673</v>
       </c>
       <c r="Q25" t="n">
-        <v>227.582123568455</v>
+        <v>229.3821235684549</v>
       </c>
       <c r="R25" t="n">
-        <v>426.5956210454637</v>
+        <v>428.3956210454637</v>
       </c>
       <c r="S25" t="n">
-        <v>114.941226054864</v>
+        <v>116.7412260548639</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24390,22 +24390,22 @@
         <v>207.7993129555744</v>
       </c>
       <c r="C26" t="n">
-        <v>175.2745782429941</v>
+        <v>174.1509912151598</v>
       </c>
       <c r="D26" t="n">
         <v>136.13915573985</v>
       </c>
       <c r="E26" t="n">
-        <v>130.1632896068687</v>
+        <v>27.16328960686866</v>
       </c>
       <c r="F26" t="n">
         <v>130.689628708012</v>
       </c>
       <c r="G26" t="n">
-        <v>136.6327491714383</v>
+        <v>33.63274917143832</v>
       </c>
       <c r="H26" t="n">
-        <v>160.8277392702956</v>
+        <v>57.82773927029558</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24435,13 +24435,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>166.2197151626545</v>
+        <v>271.2197151626545</v>
       </c>
       <c r="S26" t="n">
         <v>219.5750927496404</v>
       </c>
       <c r="T26" t="n">
-        <v>150.4191915811051</v>
+        <v>255.4191915811051</v>
       </c>
       <c r="U26" t="n">
         <v>370.3217529288725</v>
@@ -24450,7 +24450,7 @@
         <v>355.6510241668239</v>
       </c>
       <c r="W26" t="n">
-        <v>264.0498889531131</v>
+        <v>364.1734759809474</v>
       </c>
       <c r="X26" t="n">
         <v>318.081833460668</v>
@@ -24624,25 +24624,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>186.1993129555744</v>
+        <v>187.3993129555744</v>
       </c>
       <c r="C29" t="n">
-        <v>153.6745782429941</v>
+        <v>154.8745782429941</v>
       </c>
       <c r="D29" t="n">
-        <v>49.21401298221058</v>
+        <v>51.94237298221081</v>
       </c>
       <c r="E29" t="n">
-        <v>2.563289606868636</v>
+        <v>4.763289606868682</v>
       </c>
       <c r="F29" t="n">
-        <v>109.089628708012</v>
+        <v>110.289628708012</v>
       </c>
       <c r="G29" t="n">
-        <v>9.032749171438297</v>
+        <v>11.23274917143834</v>
       </c>
       <c r="H29" t="n">
-        <v>139.2277392702956</v>
+        <v>140.4277392702956</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>215.8128833721223</v>
+        <v>144.6621276423174</v>
       </c>
       <c r="N29" t="n">
-        <v>75.44895806983521</v>
+        <v>151.3519537996403</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -24672,28 +24672,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>249.6197151626545</v>
+        <v>250.8197151626545</v>
       </c>
       <c r="S29" t="n">
-        <v>197.9750927496404</v>
+        <v>199.1750927496404</v>
       </c>
       <c r="T29" t="n">
-        <v>233.819191581105</v>
+        <v>235.0191915811051</v>
       </c>
       <c r="U29" t="n">
-        <v>348.7217529288725</v>
+        <v>349.9217529288725</v>
       </c>
       <c r="V29" t="n">
-        <v>334.0510241668239</v>
+        <v>335.2510241668239</v>
       </c>
       <c r="W29" t="n">
-        <v>342.5734759809474</v>
+        <v>343.7734759809475</v>
       </c>
       <c r="X29" t="n">
-        <v>296.4818334606679</v>
+        <v>297.681833460668</v>
       </c>
       <c r="Y29" t="n">
-        <v>215.5174326828061</v>
+        <v>216.7174326828062</v>
       </c>
     </row>
     <row r="30">
@@ -24703,25 +24703,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88.75655664632671</v>
+        <v>89.95655664632676</v>
       </c>
       <c r="C30" t="n">
-        <v>65.29991244551951</v>
+        <v>66.49991244551956</v>
       </c>
       <c r="D30" t="n">
-        <v>52.13768689770285</v>
+        <v>53.33768689770289</v>
       </c>
       <c r="E30" t="n">
-        <v>46.87209722191272</v>
+        <v>48.07209722191277</v>
       </c>
       <c r="F30" t="n">
-        <v>43.83624233787685</v>
+        <v>45.0362423378769</v>
       </c>
       <c r="G30" t="n">
-        <v>33.72519625238596</v>
+        <v>34.925196252386</v>
       </c>
       <c r="H30" t="n">
-        <v>49.42842014979527</v>
+        <v>50.62842014979532</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>88.94477826560313</v>
+        <v>90.14477826560318</v>
       </c>
       <c r="N30" t="n">
-        <v>54.98197706269519</v>
+        <v>56.18197706269524</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -24751,28 +24751,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>84.70486766197217</v>
+        <v>77.42502644050099</v>
       </c>
       <c r="S30" t="n">
-        <v>44.34058893982382</v>
+        <v>45.54058893982386</v>
       </c>
       <c r="T30" t="n">
-        <v>92.73401876295719</v>
+        <v>93.93401876295724</v>
       </c>
       <c r="U30" t="n">
-        <v>103.8886974097119</v>
+        <v>105.088697409712</v>
       </c>
       <c r="V30" t="n">
-        <v>106.7858232273423</v>
+        <v>119.9106671915201</v>
       </c>
       <c r="W30" t="n">
-        <v>136.5731429098284</v>
+        <v>137.7731429098284</v>
       </c>
       <c r="X30" t="n">
-        <v>124.0627394453874</v>
+        <v>125.2627394453875</v>
       </c>
       <c r="Y30" t="n">
-        <v>103.5913927661342</v>
+        <v>104.7913927661343</v>
       </c>
     </row>
     <row r="31">
@@ -24824,16 +24824,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>6.090902192265673</v>
+        <v>7.290902192265719</v>
       </c>
       <c r="Q31" t="n">
-        <v>226.3821235684549</v>
+        <v>227.582123568455</v>
       </c>
       <c r="R31" t="n">
-        <v>425.3956210454637</v>
+        <v>426.5956210454637</v>
       </c>
       <c r="S31" t="n">
-        <v>113.7412260548639</v>
+        <v>114.941226054864</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24861,25 +24861,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.19931295557438</v>
+        <v>82.39931295557443</v>
       </c>
       <c r="C32" t="n">
-        <v>47.67457824299407</v>
+        <v>49.87457824299412</v>
       </c>
       <c r="D32" t="n">
-        <v>114.5391557398499</v>
+        <v>115.73915573985</v>
       </c>
       <c r="E32" t="n">
-        <v>108.5632896068686</v>
+        <v>109.7632896068687</v>
       </c>
       <c r="F32" t="n">
-        <v>109.089628708012</v>
+        <v>110.289628708012</v>
       </c>
       <c r="G32" t="n">
-        <v>49.7076064137989</v>
+        <v>52.43596641379916</v>
       </c>
       <c r="H32" t="n">
-        <v>139.2277392702956</v>
+        <v>140.4277392702956</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>215.8128833721223</v>
+        <v>144.6621276423174</v>
       </c>
       <c r="N32" t="n">
-        <v>75.44895806983521</v>
+        <v>151.3519537996403</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -24909,28 +24909,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>249.6197151626545</v>
+        <v>250.8197151626545</v>
       </c>
       <c r="S32" t="n">
-        <v>197.9750927496404</v>
+        <v>199.1750927496404</v>
       </c>
       <c r="T32" t="n">
-        <v>233.819191581105</v>
+        <v>235.0191915811051</v>
       </c>
       <c r="U32" t="n">
-        <v>348.7217529288725</v>
+        <v>349.9217529288725</v>
       </c>
       <c r="V32" t="n">
-        <v>334.0510241668239</v>
+        <v>335.2510241668239</v>
       </c>
       <c r="W32" t="n">
-        <v>342.5734759809474</v>
+        <v>343.7734759809475</v>
       </c>
       <c r="X32" t="n">
-        <v>296.4818334606679</v>
+        <v>297.681833460668</v>
       </c>
       <c r="Y32" t="n">
-        <v>215.5174326828061</v>
+        <v>216.7174326828062</v>
       </c>
     </row>
     <row r="33">
@@ -24940,25 +24940,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>88.75655664632671</v>
+        <v>81.47671542485547</v>
       </c>
       <c r="C33" t="n">
-        <v>65.29991244551951</v>
+        <v>66.49991244551956</v>
       </c>
       <c r="D33" t="n">
-        <v>52.13768689770285</v>
+        <v>53.33768689770289</v>
       </c>
       <c r="E33" t="n">
-        <v>46.87209722191272</v>
+        <v>48.07209722191277</v>
       </c>
       <c r="F33" t="n">
-        <v>43.83624233787685</v>
+        <v>45.0362423378769</v>
       </c>
       <c r="G33" t="n">
-        <v>33.72519625238596</v>
+        <v>34.925196252386</v>
       </c>
       <c r="H33" t="n">
-        <v>49.42842014979527</v>
+        <v>50.62842014979532</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>88.94477826560313</v>
+        <v>90.14477826560318</v>
       </c>
       <c r="N33" t="n">
-        <v>54.98197706269519</v>
+        <v>56.18197706269524</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -24988,28 +24988,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>84.70486766197217</v>
+        <v>85.90486766197222</v>
       </c>
       <c r="S33" t="n">
-        <v>44.34058893982382</v>
+        <v>45.54058893982386</v>
       </c>
       <c r="T33" t="n">
-        <v>92.73401876295719</v>
+        <v>93.93401876295724</v>
       </c>
       <c r="U33" t="n">
-        <v>103.8886974097119</v>
+        <v>105.088697409712</v>
       </c>
       <c r="V33" t="n">
-        <v>106.7858232273423</v>
+        <v>119.9106671915201</v>
       </c>
       <c r="W33" t="n">
-        <v>136.5731429098284</v>
+        <v>137.7731429098284</v>
       </c>
       <c r="X33" t="n">
-        <v>124.0627394453874</v>
+        <v>125.2627394453875</v>
       </c>
       <c r="Y33" t="n">
-        <v>103.5913927661342</v>
+        <v>104.7913927661343</v>
       </c>
     </row>
     <row r="34">
@@ -25061,16 +25061,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>6.090902192265673</v>
+        <v>7.290902192265719</v>
       </c>
       <c r="Q34" t="n">
-        <v>226.3821235684549</v>
+        <v>227.582123568455</v>
       </c>
       <c r="R34" t="n">
-        <v>425.3956210454637</v>
+        <v>426.5956210454637</v>
       </c>
       <c r="S34" t="n">
-        <v>113.7412260548639</v>
+        <v>114.941226054864</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25098,10 +25098,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>81.39931295557443</v>
+        <v>82.39931295557443</v>
       </c>
       <c r="C35" t="n">
-        <v>48.87457824299412</v>
+        <v>49.87457824299412</v>
       </c>
       <c r="D35" t="n">
         <v>115.73915573985</v>
@@ -25113,7 +25113,7 @@
         <v>110.289628708012</v>
       </c>
       <c r="G35" t="n">
-        <v>54.43596641379914</v>
+        <v>52.43596641379916</v>
       </c>
       <c r="H35" t="n">
         <v>140.4277392702956</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>219.3651233721224</v>
+        <v>144.6621276423174</v>
       </c>
       <c r="N35" t="n">
-        <v>76.64895806983526</v>
+        <v>151.3519537996403</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -25177,7 +25177,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>87.44084258697139</v>
+        <v>81.47671542485547</v>
       </c>
       <c r="C36" t="n">
         <v>66.49991244551956</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>84.18065110348726</v>
+        <v>90.14477826560318</v>
       </c>
       <c r="N36" t="n">
         <v>56.18197706269524</v>
@@ -25335,25 +25335,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>98.19931295557438</v>
+        <v>92.19931295557438</v>
       </c>
       <c r="C38" t="n">
-        <v>65.67457824299407</v>
+        <v>59.67457824299407</v>
       </c>
       <c r="D38" t="n">
-        <v>123.5391557398499</v>
+        <v>120.5391557398499</v>
       </c>
       <c r="E38" t="n">
-        <v>117.5632896068686</v>
+        <v>114.5632896068686</v>
       </c>
       <c r="F38" t="n">
-        <v>118.089628708012</v>
+        <v>115.089628708012</v>
       </c>
       <c r="G38" t="n">
-        <v>67.17030641379897</v>
+        <v>61.349406413799</v>
       </c>
       <c r="H38" t="n">
-        <v>148.2277392702956</v>
+        <v>145.2277392702956</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>160.4621276423174</v>
+        <v>227.5740833721223</v>
       </c>
       <c r="N38" t="n">
-        <v>166.4415137996401</v>
+        <v>87.44895806983521</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -25383,28 +25383,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>258.6197151626545</v>
+        <v>255.6197151626545</v>
       </c>
       <c r="S38" t="n">
-        <v>206.9750927496404</v>
+        <v>203.9750927496404</v>
       </c>
       <c r="T38" t="n">
-        <v>242.819191581105</v>
+        <v>239.819191581105</v>
       </c>
       <c r="U38" t="n">
-        <v>357.7217529288725</v>
+        <v>354.7217529288725</v>
       </c>
       <c r="V38" t="n">
-        <v>343.0510241668239</v>
+        <v>340.0510241668239</v>
       </c>
       <c r="W38" t="n">
-        <v>351.5734759809474</v>
+        <v>348.5734759809474</v>
       </c>
       <c r="X38" t="n">
-        <v>305.4818334606679</v>
+        <v>302.4818334606679</v>
       </c>
       <c r="Y38" t="n">
-        <v>224.5174326828061</v>
+        <v>221.5174326828061</v>
       </c>
     </row>
     <row r="39">
@@ -25414,25 +25414,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>97.75655664632671</v>
+        <v>94.75655664632671</v>
       </c>
       <c r="C39" t="n">
-        <v>74.29991244551951</v>
+        <v>71.29991244551951</v>
       </c>
       <c r="D39" t="n">
-        <v>61.13768689770285</v>
+        <v>58.13768689770285</v>
       </c>
       <c r="E39" t="n">
-        <v>55.87209722191272</v>
+        <v>52.87209722191272</v>
       </c>
       <c r="F39" t="n">
-        <v>52.83624233787685</v>
+        <v>49.83624233787685</v>
       </c>
       <c r="G39" t="n">
-        <v>42.72519625238596</v>
+        <v>39.72519625238596</v>
       </c>
       <c r="H39" t="n">
-        <v>58.42842014979527</v>
+        <v>55.42842014979527</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25447,10 +25447,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>97.94477826560313</v>
+        <v>94.94477826560313</v>
       </c>
       <c r="N39" t="n">
-        <v>63.98197706269519</v>
+        <v>60.98197706269519</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -25462,28 +25462,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>93.70486766197217</v>
+        <v>90.70486766197217</v>
       </c>
       <c r="S39" t="n">
-        <v>53.34058893982382</v>
+        <v>50.34058893982382</v>
       </c>
       <c r="T39" t="n">
-        <v>101.7340187629572</v>
+        <v>98.73401876295719</v>
       </c>
       <c r="U39" t="n">
-        <v>110.746960247596</v>
+        <v>109.8886974097119</v>
       </c>
       <c r="V39" t="n">
-        <v>127.71066719152</v>
+        <v>124.71066719152</v>
       </c>
       <c r="W39" t="n">
-        <v>145.5731429098284</v>
+        <v>138.9612557477125</v>
       </c>
       <c r="X39" t="n">
-        <v>133.0627394453874</v>
+        <v>130.0627394453874</v>
       </c>
       <c r="Y39" t="n">
-        <v>112.5913927661342</v>
+        <v>109.5913927661342</v>
       </c>
     </row>
     <row r="40">
@@ -25493,7 +25493,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3138003370785896</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25535,16 +25535,16 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>15.09090219226567</v>
+        <v>12.09090219226567</v>
       </c>
       <c r="Q40" t="n">
-        <v>235.3821235684549</v>
+        <v>232.3821235684549</v>
       </c>
       <c r="R40" t="n">
-        <v>434.3956210454637</v>
+        <v>431.3956210454637</v>
       </c>
       <c r="S40" t="n">
-        <v>122.7412260548639</v>
+        <v>119.7412260548639</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25562,7 +25562,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.6653528494622947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25572,28 +25572,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>225.1993129555744</v>
+        <v>179.0653333509896</v>
       </c>
       <c r="C41" t="n">
-        <v>192.6745782429941</v>
+        <v>193.8745782429941</v>
       </c>
       <c r="D41" t="n">
-        <v>153.5391557398499</v>
+        <v>154.73915573985</v>
       </c>
       <c r="E41" t="n">
-        <v>147.5632896068686</v>
+        <v>60.76328960686863</v>
       </c>
       <c r="F41" t="n">
-        <v>148.089628708012</v>
+        <v>149.289628708012</v>
       </c>
       <c r="G41" t="n">
-        <v>154.0327491714383</v>
+        <v>67.23274917143829</v>
       </c>
       <c r="H41" t="n">
-        <v>178.2277392702956</v>
+        <v>179.4277392702956</v>
       </c>
       <c r="I41" t="n">
-        <v>13.92817540646473</v>
+        <v>15.12817540646475</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>287.4621276423174</v>
+        <v>288.6621276423174</v>
       </c>
       <c r="N41" t="n">
-        <v>220.4489580698352</v>
+        <v>221.6489580698352</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -25620,28 +25620,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>203.6197151626545</v>
+        <v>289.8197151626545</v>
       </c>
       <c r="S41" t="n">
-        <v>178.9366331450554</v>
+        <v>238.1750927496404</v>
       </c>
       <c r="T41" t="n">
-        <v>272.819191581105</v>
+        <v>274.019191581105</v>
       </c>
       <c r="U41" t="n">
-        <v>387.7217529288725</v>
+        <v>388.9217529288725</v>
       </c>
       <c r="V41" t="n">
-        <v>373.0510241668239</v>
+        <v>374.2510241668239</v>
       </c>
       <c r="W41" t="n">
-        <v>296.5734759809474</v>
+        <v>382.7734759809474</v>
       </c>
       <c r="X41" t="n">
-        <v>335.4818334606679</v>
+        <v>336.6818334606679</v>
       </c>
       <c r="Y41" t="n">
-        <v>254.5174326828061</v>
+        <v>255.7174326828062</v>
       </c>
     </row>
     <row r="42">
@@ -25651,25 +25651,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>127.7565566463267</v>
+        <v>128.9565566463267</v>
       </c>
       <c r="C42" t="n">
-        <v>104.2999124455195</v>
+        <v>105.4999124455195</v>
       </c>
       <c r="D42" t="n">
-        <v>91.13768689770285</v>
+        <v>92.33768689770287</v>
       </c>
       <c r="E42" t="n">
-        <v>85.87209722191272</v>
+        <v>87.07209722191274</v>
       </c>
       <c r="F42" t="n">
-        <v>82.83624233787685</v>
+        <v>84.03624233787687</v>
       </c>
       <c r="G42" t="n">
-        <v>72.72519625238596</v>
+        <v>73.92519625238597</v>
       </c>
       <c r="H42" t="n">
-        <v>88.42842014979527</v>
+        <v>89.62842014979529</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>113.8195389506032</v>
+        <v>129.1447782656032</v>
       </c>
       <c r="N42" t="n">
-        <v>93.98197706269519</v>
+        <v>95.18197706269521</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -25699,28 +25699,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>123.7048676619722</v>
+        <v>124.9048676619722</v>
       </c>
       <c r="S42" t="n">
-        <v>83.34058893982382</v>
+        <v>84.54058893982383</v>
       </c>
       <c r="T42" t="n">
-        <v>131.7340187629572</v>
+        <v>119.3968394479573</v>
       </c>
       <c r="U42" t="n">
-        <v>142.8886974097119</v>
+        <v>144.088697409712</v>
       </c>
       <c r="V42" t="n">
-        <v>157.71066719152</v>
+        <v>158.91066719152</v>
       </c>
       <c r="W42" t="n">
-        <v>175.5731429098284</v>
+        <v>176.7731429098284</v>
       </c>
       <c r="X42" t="n">
-        <v>163.0627394453874</v>
+        <v>164.2627394453874</v>
       </c>
       <c r="Y42" t="n">
-        <v>142.5913927661342</v>
+        <v>143.7913927661342</v>
       </c>
     </row>
     <row r="43">
@@ -25730,19 +25730,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.31380033707859</v>
+        <v>31.51380033707861</v>
       </c>
       <c r="C43" t="n">
-        <v>15.92524664804472</v>
+        <v>17.12524664804474</v>
       </c>
       <c r="D43" t="n">
-        <v>28.73621805555553</v>
+        <v>29.93621805555554</v>
       </c>
       <c r="E43" t="n">
-        <v>24.18090483695636</v>
+        <v>25.38090483695638</v>
       </c>
       <c r="F43" t="n">
-        <v>17.58285596774198</v>
+        <v>18.78285596774199</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25772,16 +25772,16 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>45.09090219226567</v>
+        <v>46.29090219226569</v>
       </c>
       <c r="Q43" t="n">
-        <v>265.3821235684549</v>
+        <v>266.5821235684549</v>
       </c>
       <c r="R43" t="n">
-        <v>464.3956210454637</v>
+        <v>465.5956210454636</v>
       </c>
       <c r="S43" t="n">
-        <v>152.7412260548639</v>
+        <v>153.941226054864</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25799,7 +25799,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>30.66535284946229</v>
+        <v>31.86535284946231</v>
       </c>
     </row>
     <row r="44">
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>250.1102248846781</v>
+        <v>319.2621276423174</v>
       </c>
       <c r="N44" t="n">
         <v>252.2489580698352</v>
@@ -25857,10 +25857,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>320.4197151626545</v>
+        <v>300.0499755580695</v>
       </c>
       <c r="S44" t="n">
-        <v>234.5572559026948</v>
+        <v>185.7750927496404</v>
       </c>
       <c r="T44" t="n">
         <v>304.619191581105</v>
@@ -26118,7 +26118,7 @@
         <v>851953.9258353601</v>
       </c>
       <c r="D2" t="n">
-        <v>864438.9517907314</v>
+        <v>861915.0267055883</v>
       </c>
       <c r="E2" t="n">
         <v>842730.7567574712</v>
@@ -26133,25 +26133,25 @@
         <v>864438.9517907314</v>
       </c>
       <c r="I2" t="n">
-        <v>868268.1626805038</v>
+        <v>864438.9517907314</v>
       </c>
       <c r="J2" t="n">
         <v>824076.8300790666</v>
       </c>
       <c r="K2" t="n">
-        <v>870924.9618969674</v>
+        <v>868268.1626805038</v>
       </c>
       <c r="L2" t="n">
-        <v>870924.9618969674</v>
+        <v>868268.1626805038</v>
       </c>
       <c r="M2" t="n">
-        <v>868268.1626805039</v>
+        <v>868268.1626805038</v>
       </c>
       <c r="N2" t="n">
-        <v>851953.9258353601</v>
+        <v>858197.3855095882</v>
       </c>
       <c r="O2" t="n">
-        <v>784183.546197544</v>
+        <v>781356.6291815436</v>
       </c>
       <c r="P2" t="n">
         <v>707860.1000754914</v>
@@ -26170,13 +26170,13 @@
         <v>20224</v>
       </c>
       <c r="D3" t="n">
-        <v>10112</v>
+        <v>8160</v>
       </c>
       <c r="E3" t="n">
-        <v>306400</v>
+        <v>308000</v>
       </c>
       <c r="F3" t="n">
-        <v>13600</v>
+        <v>13952</v>
       </c>
       <c r="G3" t="n">
         <v>46400</v>
@@ -26185,25 +26185,25 @@
         <v>16000</v>
       </c>
       <c r="I3" t="n">
-        <v>11104</v>
+        <v>6400</v>
       </c>
       <c r="J3" t="n">
-        <v>279200</v>
+        <v>283200</v>
       </c>
       <c r="K3" t="n">
-        <v>42752</v>
+        <v>41504</v>
       </c>
       <c r="L3" t="n">
         <v>46400</v>
       </c>
       <c r="M3" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="N3" t="n">
-        <v>26752</v>
+        <v>28160</v>
       </c>
       <c r="O3" t="n">
-        <v>239200</v>
+        <v>237600</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26222,7 +26222,7 @@
         <v>514083.1863761388</v>
       </c>
       <c r="D4" t="n">
-        <v>521351.6754843575</v>
+        <v>519424.1773977909</v>
       </c>
       <c r="E4" t="n">
         <v>503418.122566033</v>
@@ -26237,25 +26237,25 @@
         <v>513244.1415433268</v>
       </c>
       <c r="I4" t="n">
-        <v>514152.2426301977</v>
+        <v>511210.2199215765</v>
       </c>
       <c r="J4" t="n">
         <v>480638.6869514045</v>
       </c>
       <c r="K4" t="n">
-        <v>512236.0273886548</v>
+        <v>510057.419003015</v>
       </c>
       <c r="L4" t="n">
-        <v>510177.8017005038</v>
+        <v>508005.651243196</v>
       </c>
       <c r="M4" t="n">
         <v>505950.95095124</v>
       </c>
       <c r="N4" t="n">
-        <v>492035.8008073247</v>
+        <v>496479.4909864249</v>
       </c>
       <c r="O4" t="n">
-        <v>444466.0755439191</v>
+        <v>442587.8736146303</v>
       </c>
       <c r="P4" t="n">
         <v>391794.2483150513</v>
@@ -26274,10 +26274,10 @@
         <v>46082.582</v>
       </c>
       <c r="D5" t="n">
-        <v>47288.072</v>
+        <v>47059.134</v>
       </c>
       <c r="E5" t="n">
-        <v>45858.899</v>
+        <v>45798.099</v>
       </c>
       <c r="F5" t="n">
         <v>47288.072</v>
@@ -26289,28 +26289,28 @@
         <v>47288.072</v>
       </c>
       <c r="I5" t="n">
+        <v>47288.072</v>
+      </c>
+      <c r="J5" t="n">
+        <v>44681.933</v>
+      </c>
+      <c r="K5" t="n">
         <v>47661.879</v>
       </c>
-      <c r="J5" t="n">
-        <v>44803.533</v>
-      </c>
-      <c r="K5" t="n">
-        <v>47890.817</v>
-      </c>
       <c r="L5" t="n">
-        <v>47890.817</v>
+        <v>47661.879</v>
       </c>
       <c r="M5" t="n">
-        <v>47722.679</v>
+        <v>47661.879</v>
       </c>
       <c r="N5" t="n">
-        <v>46082.582</v>
+        <v>46685.327</v>
       </c>
       <c r="O5" t="n">
-        <v>41149.532</v>
+        <v>41163.794</v>
       </c>
       <c r="P5" t="n">
-        <v>36329.075</v>
+        <v>36572.275</v>
       </c>
     </row>
     <row r="6">
@@ -26326,13 +26326,13 @@
         <v>271564.1574592213</v>
       </c>
       <c r="D6" t="n">
-        <v>285687.2043063739</v>
+        <v>287271.7153077974</v>
       </c>
       <c r="E6" t="n">
-        <v>-12946.26480856171</v>
+        <v>-14485.46480856174</v>
       </c>
       <c r="F6" t="n">
-        <v>286247.3809869884</v>
+        <v>285895.3809869884</v>
       </c>
       <c r="G6" t="n">
         <v>255475.6520549462</v>
@@ -26341,28 +26341,28 @@
         <v>287906.7382474046</v>
       </c>
       <c r="I6" t="n">
-        <v>295350.0410503061</v>
+        <v>299540.6598691549</v>
       </c>
       <c r="J6" t="n">
-        <v>19434.61012766207</v>
+        <v>15556.21012766211</v>
       </c>
       <c r="K6" t="n">
-        <v>268046.1175083126</v>
+        <v>269044.8646774889</v>
       </c>
       <c r="L6" t="n">
-        <v>266456.3431964636</v>
+        <v>266200.6324373079</v>
       </c>
       <c r="M6" t="n">
-        <v>300194.5327292639</v>
+        <v>298655.3327292638</v>
       </c>
       <c r="N6" t="n">
-        <v>287083.5430280354</v>
+        <v>286872.5675231633</v>
       </c>
       <c r="O6" t="n">
-        <v>59367.93865362491</v>
+        <v>60004.96156691329</v>
       </c>
       <c r="P6" t="n">
-        <v>279736.7767604401</v>
+        <v>279493.57676044</v>
       </c>
     </row>
   </sheetData>
@@ -26614,7 +26614,7 @@
         <v>478</v>
       </c>
       <c r="D2" t="n">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E2" t="n">
         <v>471</v>
@@ -26629,25 +26629,25 @@
         <v>488</v>
       </c>
       <c r="I2" t="n">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J2" t="n">
         <v>457</v>
       </c>
       <c r="K2" t="n">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L2" t="n">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M2" t="n">
         <v>491</v>
       </c>
       <c r="N2" t="n">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="O2" t="n">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P2" t="n">
         <v>375</v>
@@ -26718,10 +26718,10 @@
         <v>97</v>
       </c>
       <c r="D4" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" t="n">
         <v>103</v>
@@ -26733,28 +26733,28 @@
         <v>103</v>
       </c>
       <c r="I4" t="n">
+        <v>103</v>
+      </c>
+      <c r="J4" t="n">
+        <v>103</v>
+      </c>
+      <c r="K4" t="n">
         <v>105</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>105</v>
       </c>
-      <c r="K4" t="n">
-        <v>106</v>
-      </c>
-      <c r="L4" t="n">
-        <v>106</v>
-      </c>
       <c r="M4" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N4" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O4" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P4" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -26836,10 +26836,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F2" t="n">
         <v>17</v>
@@ -26851,25 +26851,25 @@
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K2" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L2" t="n">
         <v>58</v>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26940,13 +26940,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -26955,14 +26955,14 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
@@ -26970,7 +26970,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27073,10 +27073,10 @@
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K2" t="n">
         <v>17</v>
@@ -27088,13 +27088,13 @@
         <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P2" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -27198,7 +27198,7 @@
         <v>12</v>
       </c>
       <c r="P4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -27775,76 +27775,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="C8" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="D8" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="E8" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="F8" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="G8" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="H8" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="I8" t="n">
         <v>270.7281754064647</v>
       </c>
       <c r="J8" t="n">
-        <v>102.9996575786322</v>
+        <v>101.7996575786322</v>
       </c>
       <c r="K8" t="n">
-        <v>102.9996575786322</v>
+        <v>101.7996575786322</v>
       </c>
       <c r="L8" t="n">
-        <v>102.9996575786322</v>
+        <v>101.7996575786322</v>
       </c>
       <c r="M8" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="N8" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="O8" t="n">
-        <v>102.9996575786322</v>
+        <v>101.7996575786322</v>
       </c>
       <c r="P8" t="n">
-        <v>102.9996575786322</v>
+        <v>101.7996575786322</v>
       </c>
       <c r="Q8" t="n">
         <v>172.8226843274854</v>
       </c>
       <c r="R8" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="S8" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="T8" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="U8" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="V8" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="W8" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="X8" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
     </row>
     <row r="9">
@@ -27854,31 +27854,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="C9" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="D9" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="E9" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="F9" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="G9" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="H9" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="I9" t="n">
         <v>234.8539677838776</v>
       </c>
       <c r="J9" t="n">
-        <v>102.9996575786322</v>
+        <v>102.2561356901126</v>
       </c>
       <c r="K9" t="n">
         <v>104.7763862222223</v>
@@ -27887,13 +27887,13 @@
         <v>113.9979611111112</v>
       </c>
       <c r="M9" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="N9" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="O9" t="n">
-        <v>146.41</v>
+        <v>145.81</v>
       </c>
       <c r="P9" t="n">
         <v>105.4847073258964</v>
@@ -27902,28 +27902,28 @@
         <v>190.3544604340129</v>
       </c>
       <c r="R9" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="S9" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="T9" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="U9" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="V9" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="W9" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="X9" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
     </row>
     <row r="10">
@@ -27975,16 +27975,16 @@
         <v>212.2016842222222</v>
       </c>
       <c r="P10" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="R10" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="S10" t="n">
-        <v>292.8</v>
+        <v>291.6</v>
       </c>
       <c r="T10" t="n">
         <v>223.1403870791275</v>
@@ -28960,76 +28960,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="C23" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="D23" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="F23" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="G23" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="I23" t="n">
         <v>270.7281754064647</v>
       </c>
       <c r="J23" t="n">
-        <v>104.7996575786322</v>
+        <v>102.9996575786322</v>
       </c>
       <c r="K23" t="n">
-        <v>104.7996575786322</v>
+        <v>102.9996575786322</v>
       </c>
       <c r="L23" t="n">
-        <v>104.7996575786322</v>
+        <v>102.9996575786322</v>
       </c>
       <c r="M23" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="N23" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="O23" t="n">
-        <v>104.7996575786322</v>
+        <v>102.9996575786322</v>
       </c>
       <c r="P23" t="n">
-        <v>104.7996575786322</v>
+        <v>102.9996575786322</v>
       </c>
       <c r="Q23" t="n">
         <v>172.8226843274854</v>
       </c>
       <c r="R23" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="S23" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="T23" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="U23" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="V23" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="W23" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="X23" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
     </row>
     <row r="24">
@@ -29039,46 +29039,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="C24" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="D24" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="E24" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="F24" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="G24" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="H24" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="I24" t="n">
         <v>234.8539677838776</v>
       </c>
       <c r="J24" t="n">
-        <v>104.7996575786322</v>
+        <v>102.9996575786322</v>
       </c>
       <c r="K24" t="n">
-        <v>104.7996575786322</v>
+        <v>104.7763862222223</v>
       </c>
       <c r="L24" t="n">
         <v>113.9979611111112</v>
       </c>
       <c r="M24" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="N24" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="O24" t="n">
-        <v>147.31</v>
+        <v>146.41</v>
       </c>
       <c r="P24" t="n">
         <v>105.4847073258964</v>
@@ -29087,28 +29087,28 @@
         <v>190.3544604340129</v>
       </c>
       <c r="R24" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="S24" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="T24" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="U24" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="V24" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="W24" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="X24" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
     </row>
     <row r="25">
@@ -29160,16 +29160,16 @@
         <v>212.2016842222222</v>
       </c>
       <c r="P25" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="R25" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="S25" t="n">
-        <v>294.6</v>
+        <v>292.8</v>
       </c>
       <c r="T25" t="n">
         <v>223.1403870791275</v>
@@ -29434,76 +29434,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="C29" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="D29" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="E29" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="F29" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="G29" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="H29" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="I29" t="n">
         <v>270.7281754064647</v>
       </c>
       <c r="J29" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="K29" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="L29" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="M29" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="N29" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="O29" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="P29" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="Q29" t="n">
         <v>172.8226843274854</v>
       </c>
       <c r="R29" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="S29" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="T29" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="U29" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="V29" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="W29" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="X29" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
     </row>
     <row r="30">
@@ -29513,76 +29513,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="C30" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="D30" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="E30" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="F30" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="G30" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="H30" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="I30" t="n">
         <v>234.8539677838776</v>
       </c>
       <c r="J30" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="K30" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="L30" t="n">
         <v>113.9979611111112</v>
       </c>
       <c r="M30" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="N30" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="O30" t="n">
-        <v>147.91</v>
+        <v>147.31</v>
       </c>
       <c r="P30" t="n">
-        <v>105.9996575786322</v>
+        <v>105.4847073258964</v>
       </c>
       <c r="Q30" t="n">
         <v>190.3544604340129</v>
       </c>
       <c r="R30" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="S30" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="T30" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="U30" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="V30" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="W30" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="X30" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
     </row>
     <row r="31">
@@ -29634,16 +29634,16 @@
         <v>212.2016842222222</v>
       </c>
       <c r="P31" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="R31" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="S31" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="T31" t="n">
         <v>223.1403870791275</v>
@@ -29671,76 +29671,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="C32" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="D32" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="E32" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="F32" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="G32" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="H32" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="I32" t="n">
         <v>270.7281754064647</v>
       </c>
       <c r="J32" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="K32" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="L32" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="M32" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="N32" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="O32" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="P32" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="Q32" t="n">
         <v>172.8226843274854</v>
       </c>
       <c r="R32" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="S32" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="T32" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="U32" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="V32" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="W32" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="X32" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="Y32" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
     </row>
     <row r="33">
@@ -29750,76 +29750,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="C33" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="D33" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="E33" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="F33" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="G33" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="H33" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="I33" t="n">
         <v>234.8539677838776</v>
       </c>
       <c r="J33" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="K33" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="L33" t="n">
         <v>113.9979611111112</v>
       </c>
       <c r="M33" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="N33" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="O33" t="n">
-        <v>147.91</v>
+        <v>147.31</v>
       </c>
       <c r="P33" t="n">
-        <v>105.9996575786322</v>
+        <v>105.4847073258964</v>
       </c>
       <c r="Q33" t="n">
         <v>190.3544604340129</v>
       </c>
       <c r="R33" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="S33" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="T33" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="U33" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="V33" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="W33" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="X33" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="Y33" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
     </row>
     <row r="34">
@@ -29871,16 +29871,16 @@
         <v>212.2016842222222</v>
       </c>
       <c r="P34" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="Q34" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="R34" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="S34" t="n">
-        <v>295.8</v>
+        <v>294.6</v>
       </c>
       <c r="T34" t="n">
         <v>223.1403870791275</v>
@@ -30145,76 +30145,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="C38" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="D38" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="E38" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="F38" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="G38" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="H38" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="I38" t="n">
         <v>270.7281754064647</v>
       </c>
       <c r="J38" t="n">
-        <v>96.99965757863222</v>
+        <v>99.99965757863222</v>
       </c>
       <c r="K38" t="n">
-        <v>96.99965757863222</v>
+        <v>99.99965757863222</v>
       </c>
       <c r="L38" t="n">
-        <v>96.99965757863222</v>
+        <v>99.99965757863222</v>
       </c>
       <c r="M38" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="N38" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="O38" t="n">
-        <v>96.99965757863222</v>
+        <v>99.99965757863222</v>
       </c>
       <c r="P38" t="n">
-        <v>96.99965757863222</v>
+        <v>99.99965757863222</v>
       </c>
       <c r="Q38" t="n">
         <v>172.8226843274854</v>
       </c>
       <c r="R38" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="S38" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="T38" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="U38" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="V38" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="W38" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="X38" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="Y38" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
     </row>
     <row r="39">
@@ -30224,25 +30224,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="C39" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="D39" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="E39" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="F39" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="G39" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="H39" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="I39" t="n">
         <v>234.8539677838776</v>
@@ -30257,13 +30257,13 @@
         <v>113.9979611111112</v>
       </c>
       <c r="M39" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="N39" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="O39" t="n">
-        <v>143.41</v>
+        <v>144.91</v>
       </c>
       <c r="P39" t="n">
         <v>105.4847073258964</v>
@@ -30272,28 +30272,28 @@
         <v>190.3544604340129</v>
       </c>
       <c r="R39" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="S39" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="T39" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="U39" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="V39" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="W39" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="X39" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="Y39" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
     </row>
     <row r="40">
@@ -30303,7 +30303,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>286.8</v>
+        <v>287.1138003370786</v>
       </c>
       <c r="C40" t="n">
         <v>272.7252466480447</v>
@@ -30345,16 +30345,16 @@
         <v>212.2016842222222</v>
       </c>
       <c r="P40" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="Q40" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="R40" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="S40" t="n">
-        <v>286.8</v>
+        <v>289.8</v>
       </c>
       <c r="T40" t="n">
         <v>223.1403870791275</v>
@@ -30372,7 +30372,7 @@
         <v>247.4436454301074</v>
       </c>
       <c r="Y40" t="n">
-        <v>286.8</v>
+        <v>287.4653528494623</v>
       </c>
     </row>
     <row r="41">
@@ -30382,76 +30382,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="C41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="D41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="E41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="F41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="G41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="H41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="I41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="J41" t="n">
-        <v>66.99965757863222</v>
+        <v>65.79965757863221</v>
       </c>
       <c r="K41" t="n">
-        <v>66.99965757863222</v>
+        <v>65.79965757863221</v>
       </c>
       <c r="L41" t="n">
-        <v>66.99965757863222</v>
+        <v>65.79965757863221</v>
       </c>
       <c r="M41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="N41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="O41" t="n">
         <v>70.24786957409242</v>
       </c>
       <c r="P41" t="n">
-        <v>66.99965757863222</v>
+        <v>65.79965757863221</v>
       </c>
       <c r="Q41" t="n">
         <v>172.8226843274854</v>
       </c>
       <c r="R41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="S41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="T41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="U41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="V41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="W41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="X41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="Y41" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
     </row>
     <row r="42">
@@ -30461,25 +30461,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="C42" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="D42" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="E42" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="F42" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="G42" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="H42" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="I42" t="n">
         <v>234.8539677838776</v>
@@ -30491,13 +30491,13 @@
         <v>104.7763862222223</v>
       </c>
       <c r="L42" t="n">
-        <v>128.41</v>
+        <v>127.81</v>
       </c>
       <c r="M42" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="N42" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="O42" t="n">
         <v>141.2247768981574</v>
@@ -30509,28 +30509,28 @@
         <v>190.3544604340129</v>
       </c>
       <c r="R42" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="S42" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="T42" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="U42" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="V42" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="W42" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="X42" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="Y42" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
     </row>
     <row r="43">
@@ -30540,19 +30540,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="C43" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="D43" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="E43" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="F43" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="G43" t="n">
         <v>248.1402806959707</v>
@@ -30582,16 +30582,16 @@
         <v>212.2016842222222</v>
       </c>
       <c r="P43" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="Q43" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="R43" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="S43" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
       <c r="T43" t="n">
         <v>223.1403870791275</v>
@@ -30609,7 +30609,7 @@
         <v>247.4436454301074</v>
       </c>
       <c r="Y43" t="n">
-        <v>256.8</v>
+        <v>255.6</v>
       </c>
     </row>
     <row r="44">
@@ -35095,13 +35095,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>67.95665133354194</v>
+        <v>66.7566513335419</v>
       </c>
       <c r="K8" t="n">
-        <v>102.9996575786322</v>
+        <v>101.7996575786322</v>
       </c>
       <c r="L8" t="n">
-        <v>102.9996575786322</v>
+        <v>101.7996575786322</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35110,10 +35110,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>32.7517880045398</v>
+        <v>31.55178800453976</v>
       </c>
       <c r="P8" t="n">
-        <v>102.7125975379509</v>
+        <v>101.5125975379508</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35174,7 +35174,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7435218885196093</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35189,7 +35189,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>5.185223101842581</v>
+        <v>4.585223101842558</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -36280,13 +36280,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>69.7566513335419</v>
+        <v>67.95665133354194</v>
       </c>
       <c r="K23" t="n">
-        <v>104.7996575786322</v>
+        <v>102.9996575786322</v>
       </c>
       <c r="L23" t="n">
-        <v>104.7996575786322</v>
+        <v>102.9996575786322</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36295,10 +36295,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>34.55178800453976</v>
+        <v>32.7517880045398</v>
       </c>
       <c r="P23" t="n">
-        <v>104.5125975379508</v>
+        <v>102.7125975379509</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36359,10 +36359,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.543521888519564</v>
+        <v>0.7435218885196093</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02327135640987876</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36374,7 +36374,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>6.085223101842558</v>
+        <v>5.185223101842581</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36754,13 +36754,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>70.95665133354194</v>
+        <v>69.7566513335419</v>
       </c>
       <c r="K29" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="L29" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36769,10 +36769,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>35.7517880045398</v>
+        <v>34.55178800453976</v>
       </c>
       <c r="P29" t="n">
-        <v>105.7125975379509</v>
+        <v>104.5125975379508</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36833,10 +36833,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3.743521888519609</v>
+        <v>2.543521888519564</v>
       </c>
       <c r="K30" t="n">
-        <v>1.223271356409924</v>
+        <v>0.02327135640987876</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36848,10 +36848,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>6.685223101842581</v>
+        <v>6.085223101842558</v>
       </c>
       <c r="P30" t="n">
-        <v>0.514950252735872</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36991,13 +36991,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>70.95665133354194</v>
+        <v>69.7566513335419</v>
       </c>
       <c r="K32" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="L32" t="n">
-        <v>105.9996575786322</v>
+        <v>104.7996575786322</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -37006,10 +37006,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>35.7517880045398</v>
+        <v>34.55178800453976</v>
       </c>
       <c r="P32" t="n">
-        <v>105.7125975379509</v>
+        <v>104.5125975379508</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37070,10 +37070,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.743521888519609</v>
+        <v>2.543521888519564</v>
       </c>
       <c r="K33" t="n">
-        <v>1.223271356409924</v>
+        <v>0.02327135640987876</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37085,10 +37085,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>6.685223101842581</v>
+        <v>6.085223101842558</v>
       </c>
       <c r="P33" t="n">
-        <v>0.514950252735872</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37465,13 +37465,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>61.95665133354194</v>
+        <v>64.95665133354194</v>
       </c>
       <c r="K38" t="n">
-        <v>96.99965757863222</v>
+        <v>99.99965757863222</v>
       </c>
       <c r="L38" t="n">
-        <v>96.99965757863222</v>
+        <v>99.99965757863222</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37480,10 +37480,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>26.7517880045398</v>
+        <v>29.7517880045398</v>
       </c>
       <c r="P38" t="n">
-        <v>96.71259753795087</v>
+        <v>99.71259753795087</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37559,7 +37559,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>2.185223101842581</v>
+        <v>3.685223101842581</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37702,13 +37702,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>31.95665133354194</v>
+        <v>30.75665133354192</v>
       </c>
       <c r="K41" t="n">
-        <v>66.99965757863222</v>
+        <v>65.79965757863221</v>
       </c>
       <c r="L41" t="n">
-        <v>66.99965757863222</v>
+        <v>65.79965757863221</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37720,7 +37720,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>66.71259753795087</v>
+        <v>65.51259753795085</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37787,7 +37787,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>14.41203888888882</v>
+        <v>13.81203888888881</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
